--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-03T13:53:40+00:00</t>
+    <t>2025-04-11T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T16:20:36+00:00</t>
+    <t>2025-04-11T19:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,9 +490,7 @@
       <c r="C2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -504,9 +502,7 @@
       <c r="C3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T19:45:36+00:00</t>
+    <t>2025-04-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:15:00+00:00</t>
+    <t>2025-04-17T22:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-17T22:39:33+00:00</t>
+    <t>2025-04-21T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-well-being-answer-codes.xlsx
+++ b/CodeSystem-well-being-answer-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-21T21:10:00+00:00</t>
+    <t>2025-09-02T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
